--- a/scan-logs.xlsx
+++ b/scan-logs.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -670,9 +670,29 @@
         <v>٤:٥٢:٢١ م</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>2025-11-27T17:53:42.055Z</v>
+      </c>
+      <c r="B14" t="str">
+        <v>rousol@ramworld.net</v>
+      </c>
+      <c r="C14" t="str">
+        <v>https://mc.gov.sa</v>
+      </c>
+      <c r="D14" t="str">
+        <v>No</v>
+      </c>
+      <c r="E14" t="str">
+        <v>٢٧‏/١١‏/٢٠٢٥</v>
+      </c>
+      <c r="F14" t="str">
+        <v>٨:٥٣:٤٢ م</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F13"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F14"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/scan-logs.xlsx
+++ b/scan-logs.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -690,9 +690,329 @@
         <v>٨:٥٣:٤٢ م</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>2025-11-28T13:53:13.846Z</v>
+      </c>
+      <c r="B15" t="str">
+        <v>russ@tret.com</v>
+      </c>
+      <c r="C15" t="str">
+        <v>https://dga.gov.sa</v>
+      </c>
+      <c r="D15" t="str">
+        <v>No</v>
+      </c>
+      <c r="E15" t="str">
+        <v>٢٨‏/١١‏/٢٠٢٥</v>
+      </c>
+      <c r="F15" t="str">
+        <v>٤:٥٣:١٣ م</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>2025-11-28T14:04:30.258Z</v>
+      </c>
+      <c r="B16" t="str">
+        <v>russ@testhost.com</v>
+      </c>
+      <c r="C16" t="str">
+        <v>https://dga.gov.sa</v>
+      </c>
+      <c r="D16" t="str">
+        <v>No</v>
+      </c>
+      <c r="E16" t="str">
+        <v>٢٨‏/١١‏/٢٠٢٥</v>
+      </c>
+      <c r="F16" t="str">
+        <v>٥:٠٤:٣٠ م</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>2025-11-28T14:07:54.822Z</v>
+      </c>
+      <c r="B17" t="str">
+        <v>russ@testhot.com</v>
+      </c>
+      <c r="C17" t="str">
+        <v>https://dga.gov.sa</v>
+      </c>
+      <c r="D17" t="str">
+        <v>No</v>
+      </c>
+      <c r="E17" t="str">
+        <v>٢٨‏/١١‏/٢٠٢٥</v>
+      </c>
+      <c r="F17" t="str">
+        <v>٥:٠٧:٥٤ م</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>2025-11-28T14:11:05.393Z</v>
+      </c>
+      <c r="B18" t="str">
+        <v>russ@testhost.com</v>
+      </c>
+      <c r="C18" t="str">
+        <v>https://dga.gov.sa</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="E18" t="str">
+        <v>٢٨‏/١١‏/٢٠٢٥</v>
+      </c>
+      <c r="F18" t="str">
+        <v>٥:١١:٠٥ م</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>2025-11-28T14:14:13.235Z</v>
+      </c>
+      <c r="B19" t="str">
+        <v>test@tes.com</v>
+      </c>
+      <c r="C19" t="str">
+        <v>https://dga.gov.sa</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="E19" t="str">
+        <v>٢٨‏/١١‏/٢٠٢٥</v>
+      </c>
+      <c r="F19" t="str">
+        <v>٥:١٤:١٣ م</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>2025-11-28T14:14:27.640Z</v>
+      </c>
+      <c r="B20" t="str">
+        <v>test@tes.com</v>
+      </c>
+      <c r="C20" t="str">
+        <v>https://dga.gov.sa</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="E20" t="str">
+        <v>٢٨‏/١١‏/٢٠٢٥</v>
+      </c>
+      <c r="F20" t="str">
+        <v>٥:١٤:٢٧ م</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>2025-11-28T14:27:48.475Z</v>
+      </c>
+      <c r="B21" t="str">
+        <v>test@test.com</v>
+      </c>
+      <c r="C21" t="str">
+        <v>https://dga.gov.sa</v>
+      </c>
+      <c r="D21" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="E21" t="str">
+        <v>٢٨‏/١١‏/٢٠٢٥</v>
+      </c>
+      <c r="F21" t="str">
+        <v>٥:٢٧:٤٨ م</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>2025-11-29T10:36:55.328Z</v>
+      </c>
+      <c r="B22" t="str">
+        <v>test@testhost.com</v>
+      </c>
+      <c r="C22" t="str">
+        <v>https://dga.gov.sa</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="E22" t="str">
+        <v>٢٩‏/١١‏/٢٠٢٥</v>
+      </c>
+      <c r="F22" t="str">
+        <v>١:٣٦:٥٥ م</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>2025-11-29T10:41:36.354Z</v>
+      </c>
+      <c r="B23" t="str">
+        <v>test@testhost.com</v>
+      </c>
+      <c r="C23" t="str">
+        <v>https://dga.gov.sa</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="E23" t="str">
+        <v>٢٩‏/١١‏/٢٠٢٥</v>
+      </c>
+      <c r="F23" t="str">
+        <v>١:٤١:٣٦ م</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>2025-11-29T10:42:16.053Z</v>
+      </c>
+      <c r="B24" t="str">
+        <v>test@host.com</v>
+      </c>
+      <c r="C24" t="str">
+        <v>https://dga.gov.sa</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="E24" t="str">
+        <v>٢٩‏/١١‏/٢٠٢٥</v>
+      </c>
+      <c r="F24" t="str">
+        <v>١:٤٢:١٦ م</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>2025-11-29T10:43:54.974Z</v>
+      </c>
+      <c r="B25" t="str">
+        <v>test@host.com</v>
+      </c>
+      <c r="C25" t="str">
+        <v>https://dga.gov.sa</v>
+      </c>
+      <c r="D25" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="E25" t="str">
+        <v>٢٩‏/١١‏/٢٠٢٥</v>
+      </c>
+      <c r="F25" t="str">
+        <v>١:٤٣:٥٤ م</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>2025-11-29T10:48:27.122Z</v>
+      </c>
+      <c r="B26" t="str">
+        <v>test@host.com</v>
+      </c>
+      <c r="C26" t="str">
+        <v>https://dga.gov.sa</v>
+      </c>
+      <c r="D26" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="E26" t="str">
+        <v>٢٩‏/١١‏/٢٠٢٥</v>
+      </c>
+      <c r="F26" t="str">
+        <v>١:٤٨:٢٧ م</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>2025-11-29T10:50:48.683Z</v>
+      </c>
+      <c r="B27" t="str">
+        <v>test@host.com</v>
+      </c>
+      <c r="C27" t="str">
+        <v>https://dga.gov.sa</v>
+      </c>
+      <c r="D27" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="E27" t="str">
+        <v>٢٩‏/١١‏/٢٠٢٥</v>
+      </c>
+      <c r="F27" t="str">
+        <v>١:٥٠:٤٨ م</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>2025-11-29T10:58:33.784Z</v>
+      </c>
+      <c r="B28" t="str">
+        <v>test@host.com</v>
+      </c>
+      <c r="C28" t="str">
+        <v>https://dga.gov.sa</v>
+      </c>
+      <c r="D28" t="str">
+        <v>No</v>
+      </c>
+      <c r="E28" t="str">
+        <v>٢٩‏/١١‏/٢٠٢٥</v>
+      </c>
+      <c r="F28" t="str">
+        <v>١:٥٨:٣٣ م</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>2025-11-29T10:58:45.958Z</v>
+      </c>
+      <c r="B29" t="str">
+        <v>test@host.com</v>
+      </c>
+      <c r="C29" t="str">
+        <v>https://dga.gov.sa</v>
+      </c>
+      <c r="D29" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="E29" t="str">
+        <v>٢٩‏/١١‏/٢٠٢٥</v>
+      </c>
+      <c r="F29" t="str">
+        <v>١:٥٨:٤٥ م</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>2025-11-29T11:01:48.429Z</v>
+      </c>
+      <c r="B30" t="str">
+        <v>test@host.com</v>
+      </c>
+      <c r="C30" t="str">
+        <v>https://dga.gov.sa</v>
+      </c>
+      <c r="D30" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="E30" t="str">
+        <v>٢٩‏/١١‏/٢٠٢٥</v>
+      </c>
+      <c r="F30" t="str">
+        <v>٢:٠١:٤٨ م</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F14"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F30"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/scan-logs.xlsx
+++ b/scan-logs.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -1010,9 +1010,89 @@
         <v>٢:٠١:٤٨ م</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>2025-11-30T10:23:31.531Z</v>
+      </c>
+      <c r="B31" t="str">
+        <v>rousol@testhotst.com</v>
+      </c>
+      <c r="C31" t="str">
+        <v>https://aou.edu.sa</v>
+      </c>
+      <c r="D31" t="str">
+        <v>No</v>
+      </c>
+      <c r="E31" t="str">
+        <v>٣٠‏/١١‏/٢٠٢٥</v>
+      </c>
+      <c r="F31" t="str">
+        <v>١:٢٣:٣١ م</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>2025-11-30T10:24:22.596Z</v>
+      </c>
+      <c r="B32" t="str">
+        <v>rousol@ram.c</v>
+      </c>
+      <c r="C32" t="str">
+        <v>https://aou.edu.sa</v>
+      </c>
+      <c r="D32" t="str">
+        <v>No</v>
+      </c>
+      <c r="E32" t="str">
+        <v>٣٠‏/١١‏/٢٠٢٥</v>
+      </c>
+      <c r="F32" t="str">
+        <v>١:٢٤:٢٢ م</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>2025-11-30T10:24:58.193Z</v>
+      </c>
+      <c r="B33" t="str">
+        <v>rousol@ram.c</v>
+      </c>
+      <c r="C33" t="str">
+        <v>https://dga.gov.sa</v>
+      </c>
+      <c r="D33" t="str">
+        <v>No</v>
+      </c>
+      <c r="E33" t="str">
+        <v>٣٠‏/١١‏/٢٠٢٥</v>
+      </c>
+      <c r="F33" t="str">
+        <v>١:٢٤:٥٨ م</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>2025-11-30T10:35:51.373Z</v>
+      </c>
+      <c r="B34" t="str">
+        <v>test@test.test</v>
+      </c>
+      <c r="C34" t="str">
+        <v>https://www.arabou.edu.sa/</v>
+      </c>
+      <c r="D34" t="str">
+        <v>No</v>
+      </c>
+      <c r="E34" t="str">
+        <v>٣٠‏/١١‏/٢٠٢٥</v>
+      </c>
+      <c r="F34" t="str">
+        <v>١:٣٥:٥١ م</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F30"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F34"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/scan-logs.xlsx
+++ b/scan-logs.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -1090,9 +1090,49 @@
         <v>١:٣٥:٥١ م</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>2025-11-30T11:25:30.596Z</v>
+      </c>
+      <c r="B35" t="str">
+        <v>rousol@testhost.com</v>
+      </c>
+      <c r="C35" t="str">
+        <v>https://dga.gov.sa</v>
+      </c>
+      <c r="D35" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="E35" t="str">
+        <v>٣٠‏/١١‏/٢٠٢٥</v>
+      </c>
+      <c r="F35" t="str">
+        <v>٢:٢٥:٣٠ م</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>2025-11-30T11:33:22.258Z</v>
+      </c>
+      <c r="B36" t="str">
+        <v>sara@test.com</v>
+      </c>
+      <c r="C36" t="str">
+        <v>https://www.arabou.edu.sa/</v>
+      </c>
+      <c r="D36" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="E36" t="str">
+        <v>٣٠‏/١١‏/٢٠٢٥</v>
+      </c>
+      <c r="F36" t="str">
+        <v>٢:٣٣:٢٢ م</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F34"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F36"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/scan-logs.xlsx
+++ b/scan-logs.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -1130,9 +1130,49 @@
         <v>٢:٣٣:٢٢ م</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>2025-11-30T12:31:12.001Z</v>
+      </c>
+      <c r="B37" t="str">
+        <v>rus@h.com</v>
+      </c>
+      <c r="C37" t="str">
+        <v>https://ksu.edu.sa</v>
+      </c>
+      <c r="D37" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="E37" t="str">
+        <v>٣٠‏/١١‏/٢٠٢٥</v>
+      </c>
+      <c r="F37" t="str">
+        <v>٣:٣١:١٢ م</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>2025-11-30T12:38:36.960Z</v>
+      </c>
+      <c r="B38" t="str">
+        <v>test@test.com</v>
+      </c>
+      <c r="C38" t="str">
+        <v>https://ksu.edu.sa</v>
+      </c>
+      <c r="D38" t="str">
+        <v>No</v>
+      </c>
+      <c r="E38" t="str">
+        <v>٣٠‏/١١‏/٢٠٢٥</v>
+      </c>
+      <c r="F38" t="str">
+        <v>٣:٣٨:٣٧ م</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F36"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F38"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/scan-logs.xlsx
+++ b/scan-logs.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -1170,9 +1170,89 @@
         <v>٣:٣٨:٣٧ م</v>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>2025-12-02T08:30:52.598Z</v>
+      </c>
+      <c r="B39" t="str">
+        <v>test@t.t</v>
+      </c>
+      <c r="C39" t="str">
+        <v>https://dga.gov.sa</v>
+      </c>
+      <c r="D39" t="str">
+        <v>No</v>
+      </c>
+      <c r="E39" t="str">
+        <v>٢‏/١٢‏/٢٠٢٥</v>
+      </c>
+      <c r="F39" t="str">
+        <v>١١:٣٠:٥٢ ص</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>2025-12-02T08:36:50.534Z</v>
+      </c>
+      <c r="B40" t="str">
+        <v>test@t.t</v>
+      </c>
+      <c r="C40" t="str">
+        <v>https://dga.gov.sa</v>
+      </c>
+      <c r="D40" t="str">
+        <v>No</v>
+      </c>
+      <c r="E40" t="str">
+        <v>٢‏/١٢‏/٢٠٢٥</v>
+      </c>
+      <c r="F40" t="str">
+        <v>١١:٣٦:٥٠ ص</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>2025-12-02T09:00:01.622Z</v>
+      </c>
+      <c r="B41" t="str">
+        <v>test@t.t</v>
+      </c>
+      <c r="C41" t="str">
+        <v>https://monshaat.gov.sa</v>
+      </c>
+      <c r="D41" t="str">
+        <v>No</v>
+      </c>
+      <c r="E41" t="str">
+        <v>٢‏/١٢‏/٢٠٢٥</v>
+      </c>
+      <c r="F41" t="str">
+        <v>١٢:٠٠:٠١ م</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>2025-12-02T09:09:27.713Z</v>
+      </c>
+      <c r="B42" t="str">
+        <v>test@t.t</v>
+      </c>
+      <c r="C42" t="str">
+        <v>https://moc.gov.sa</v>
+      </c>
+      <c r="D42" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="E42" t="str">
+        <v>٢‏/١٢‏/٢٠٢٥</v>
+      </c>
+      <c r="F42" t="str">
+        <v>١٢:٠٩:٢٧ م</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F38"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F42"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/scan-logs.xlsx
+++ b/scan-logs.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -1250,9 +1250,89 @@
         <v>١٢:٠٩:٢٧ م</v>
       </c>
     </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>2025-12-03T09:52:08.671Z</v>
+      </c>
+      <c r="B43" t="str">
+        <v>test@test.com</v>
+      </c>
+      <c r="C43" t="str">
+        <v>https://www.mim.gov.sa/ar</v>
+      </c>
+      <c r="D43" t="str">
+        <v>No</v>
+      </c>
+      <c r="E43" t="str">
+        <v>٣‏/١٢‏/٢٠٢٥</v>
+      </c>
+      <c r="F43" t="str">
+        <v>١٢:٥٢:٠٨ م</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>2025-12-03T09:58:02.766Z</v>
+      </c>
+      <c r="B44" t="str">
+        <v>test@test.com</v>
+      </c>
+      <c r="C44" t="str">
+        <v>https://www.mim.gov.sa/ar</v>
+      </c>
+      <c r="D44" t="str">
+        <v>No</v>
+      </c>
+      <c r="E44" t="str">
+        <v>٣‏/١٢‏/٢٠٢٥</v>
+      </c>
+      <c r="F44" t="str">
+        <v>١٢:٥٨:٠٢ م</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>2025-12-03T09:58:37.673Z</v>
+      </c>
+      <c r="B45" t="str">
+        <v>test@test.com</v>
+      </c>
+      <c r="C45" t="str">
+        <v>https://www.mim.gov.sa/ar</v>
+      </c>
+      <c r="D45" t="str">
+        <v>No</v>
+      </c>
+      <c r="E45" t="str">
+        <v>٣‏/١٢‏/٢٠٢٥</v>
+      </c>
+      <c r="F45" t="str">
+        <v>١٢:٥٨:٣٧ م</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>2025-12-03T10:00:57.299Z</v>
+      </c>
+      <c r="B46" t="str">
+        <v>test@test.com</v>
+      </c>
+      <c r="C46" t="str">
+        <v>https://www.mim.gov.sa/ar</v>
+      </c>
+      <c r="D46" t="str">
+        <v>No</v>
+      </c>
+      <c r="E46" t="str">
+        <v>٣‏/١٢‏/٢٠٢٥</v>
+      </c>
+      <c r="F46" t="str">
+        <v>١:٠٠:٥٧ م</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F42"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F46"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/scan-logs.xlsx
+++ b/scan-logs.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -1330,9 +1330,409 @@
         <v>١:٠٠:٥٧ م</v>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>2025-12-09T12:42:49.728Z</v>
+      </c>
+      <c r="B47" t="str">
+        <v>test@test.com</v>
+      </c>
+      <c r="C47" t="str">
+        <v>https://pnu.edu.sa</v>
+      </c>
+      <c r="D47" t="str">
+        <v>No</v>
+      </c>
+      <c r="E47" t="str">
+        <v>٩‏/١٢‏/٢٠٢٥</v>
+      </c>
+      <c r="F47" t="str">
+        <v>٣:٤٢:٤٩ م</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>2025-12-09T12:55:50.316Z</v>
+      </c>
+      <c r="B48" t="str">
+        <v>rousol@ramworld.net</v>
+      </c>
+      <c r="C48" t="str">
+        <v>https://care.med.sa/</v>
+      </c>
+      <c r="D48" t="str">
+        <v>No</v>
+      </c>
+      <c r="E48" t="str">
+        <v>٩‏/١٢‏/٢٠٢٥</v>
+      </c>
+      <c r="F48" t="str">
+        <v>٣:٥٥:٥٠ م</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>2025-12-09T12:58:11.542Z</v>
+      </c>
+      <c r="B49" t="str">
+        <v>rousol@ramworld.net</v>
+      </c>
+      <c r="C49" t="str">
+        <v>https://care.med.sa/</v>
+      </c>
+      <c r="D49" t="str">
+        <v>No</v>
+      </c>
+      <c r="E49" t="str">
+        <v>٩‏/١٢‏/٢٠٢٥</v>
+      </c>
+      <c r="F49" t="str">
+        <v>٣:٥٨:١١ م</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>2025-12-09T13:03:53.508Z</v>
+      </c>
+      <c r="B50" t="str">
+        <v>rousol@ramworld.net</v>
+      </c>
+      <c r="C50" t="str">
+        <v>https://care.med.sa/</v>
+      </c>
+      <c r="D50" t="str">
+        <v>No</v>
+      </c>
+      <c r="E50" t="str">
+        <v>٩‏/١٢‏/٢٠٢٥</v>
+      </c>
+      <c r="F50" t="str">
+        <v>٤:٠٣:٥٣ م</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>2025-12-09T13:08:16.699Z</v>
+      </c>
+      <c r="B51" t="str">
+        <v>rousol@ramworld.net</v>
+      </c>
+      <c r="C51" t="str">
+        <v>https://care.med.sa/</v>
+      </c>
+      <c r="D51" t="str">
+        <v>No</v>
+      </c>
+      <c r="E51" t="str">
+        <v>٩‏/١٢‏/٢٠٢٥</v>
+      </c>
+      <c r="F51" t="str">
+        <v>٤:٠٨:١٦ م</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>2025-12-09T13:10:51.186Z</v>
+      </c>
+      <c r="B52" t="str">
+        <v>rousol@ramworld.net</v>
+      </c>
+      <c r="C52" t="str">
+        <v>https://care.med.sa/</v>
+      </c>
+      <c r="D52" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="E52" t="str">
+        <v>٩‏/١٢‏/٢٠٢٥</v>
+      </c>
+      <c r="F52" t="str">
+        <v>٤:١٠:٥١ م</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>2025-12-09T13:12:28.696Z</v>
+      </c>
+      <c r="B53" t="str">
+        <v>rousol@ramworld.net</v>
+      </c>
+      <c r="C53" t="str">
+        <v>https://care.med.sa/</v>
+      </c>
+      <c r="D53" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="E53" t="str">
+        <v>٩‏/١٢‏/٢٠٢٥</v>
+      </c>
+      <c r="F53" t="str">
+        <v>٤:١٢:٢٨ م</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>2025-12-09T13:13:11.151Z</v>
+      </c>
+      <c r="B54" t="str">
+        <v>rousol@ramworld.net</v>
+      </c>
+      <c r="C54" t="str">
+        <v>https://dga.gov.sa</v>
+      </c>
+      <c r="D54" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="E54" t="str">
+        <v>٩‏/١٢‏/٢٠٢٥</v>
+      </c>
+      <c r="F54" t="str">
+        <v>٤:١٣:١١ م</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>2025-12-09T13:14:42.767Z</v>
+      </c>
+      <c r="B55" t="str">
+        <v>rousol@ramworld.net</v>
+      </c>
+      <c r="C55" t="str">
+        <v>https://dga.gov.sa</v>
+      </c>
+      <c r="D55" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="E55" t="str">
+        <v>٩‏/١٢‏/٢٠٢٥</v>
+      </c>
+      <c r="F55" t="str">
+        <v>٤:١٤:٤٢ م</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>2025-12-10T06:25:33.109Z</v>
+      </c>
+      <c r="B56" t="str">
+        <v>rousol@ramworld.net</v>
+      </c>
+      <c r="C56" t="str">
+        <v>https://dga.gov.sa</v>
+      </c>
+      <c r="D56" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="E56" t="str">
+        <v>١٠‏/١٢‏/٢٠٢٥</v>
+      </c>
+      <c r="F56" t="str">
+        <v>٩:٢٥:٣٣ ص</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>2025-12-10T06:43:43.388Z</v>
+      </c>
+      <c r="B57" t="str">
+        <v>rousol@ramworld.net</v>
+      </c>
+      <c r="C57" t="str">
+        <v>https://dga.gov.sa</v>
+      </c>
+      <c r="D57" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="E57" t="str">
+        <v>١٠‏/١٢‏/٢٠٢٥</v>
+      </c>
+      <c r="F57" t="str">
+        <v>٩:٤٣:٤٣ ص</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>2025-12-10T07:06:05.108Z</v>
+      </c>
+      <c r="B58" t="str">
+        <v>rousol@ramworld.net</v>
+      </c>
+      <c r="C58" t="str">
+        <v>https://pnu.edu.sa</v>
+      </c>
+      <c r="D58" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="E58" t="str">
+        <v>١٠‏/١٢‏/٢٠٢٥</v>
+      </c>
+      <c r="F58" t="str">
+        <v>١٠:٠٦:٠٥ ص</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>2025-12-10T07:11:56.072Z</v>
+      </c>
+      <c r="B59" t="str">
+        <v>rousol@ramworld.net</v>
+      </c>
+      <c r="C59" t="str">
+        <v>https://hrdf.org.sa</v>
+      </c>
+      <c r="D59" t="str">
+        <v>No</v>
+      </c>
+      <c r="E59" t="str">
+        <v>١٠‏/١٢‏/٢٠٢٥</v>
+      </c>
+      <c r="F59" t="str">
+        <v>١٠:١١:٥٦ ص</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>2025-12-10T07:18:53.455Z</v>
+      </c>
+      <c r="B60" t="str">
+        <v>rousol@ramworld.net</v>
+      </c>
+      <c r="C60" t="str">
+        <v>https://hrdf.org.sa</v>
+      </c>
+      <c r="D60" t="str">
+        <v>No</v>
+      </c>
+      <c r="E60" t="str">
+        <v>١٠‏/١٢‏/٢٠٢٥</v>
+      </c>
+      <c r="F60" t="str">
+        <v>١٠:١٨:٥٣ ص</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>2025-12-10T08:14:22.546Z</v>
+      </c>
+      <c r="B61" t="str">
+        <v>rousol@ramworld.net</v>
+      </c>
+      <c r="C61" t="str">
+        <v>https://hrdf.org.sa</v>
+      </c>
+      <c r="D61" t="str">
+        <v>No</v>
+      </c>
+      <c r="E61" t="str">
+        <v>١٠‏/١٢‏/٢٠٢٥</v>
+      </c>
+      <c r="F61" t="str">
+        <v>١١:١٤:٢٢ ص</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>2025-12-10T08:21:12.958Z</v>
+      </c>
+      <c r="B62" t="str">
+        <v>rousol@ramworld.net</v>
+      </c>
+      <c r="C62" t="str">
+        <v>https://hrdf.org.sa</v>
+      </c>
+      <c r="D62" t="str">
+        <v>No</v>
+      </c>
+      <c r="E62" t="str">
+        <v>١٠‏/١٢‏/٢٠٢٥</v>
+      </c>
+      <c r="F62" t="str">
+        <v>١١:٢١:١٢ ص</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>2025-12-10T08:42:01.182Z</v>
+      </c>
+      <c r="B63" t="str">
+        <v>rousol@ramworld.net</v>
+      </c>
+      <c r="C63" t="str">
+        <v>https://pnu.edu.sa</v>
+      </c>
+      <c r="D63" t="str">
+        <v>No</v>
+      </c>
+      <c r="E63" t="str">
+        <v>١٠‏/١٢‏/٢٠٢٥</v>
+      </c>
+      <c r="F63" t="str">
+        <v>١١:٤٢:٠١ ص</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>2025-12-10T08:49:02.598Z</v>
+      </c>
+      <c r="B64" t="str">
+        <v>rousol@ramworld.net</v>
+      </c>
+      <c r="C64" t="str">
+        <v>https://dga.gov.sa</v>
+      </c>
+      <c r="D64" t="str">
+        <v>No</v>
+      </c>
+      <c r="E64" t="str">
+        <v>١٠‏/١٢‏/٢٠٢٥</v>
+      </c>
+      <c r="F64" t="str">
+        <v>١١:٤٩:٠٢ ص</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>2025-12-10T08:55:39.678Z</v>
+      </c>
+      <c r="B65" t="str">
+        <v>rousol@ramworld.net</v>
+      </c>
+      <c r="C65" t="str">
+        <v>https://dga.gov.sa</v>
+      </c>
+      <c r="D65" t="str">
+        <v>No</v>
+      </c>
+      <c r="E65" t="str">
+        <v>١٠‏/١٢‏/٢٠٢٥</v>
+      </c>
+      <c r="F65" t="str">
+        <v>١١:٥٥:٣٩ ص</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>2025-12-10T08:58:52.955Z</v>
+      </c>
+      <c r="B66" t="str">
+        <v>rousol@ramworld.net</v>
+      </c>
+      <c r="C66" t="str">
+        <v>https://dga.gov.sa</v>
+      </c>
+      <c r="D66" t="str">
+        <v>No</v>
+      </c>
+      <c r="E66" t="str">
+        <v>١٠‏/١٢‏/٢٠٢٥</v>
+      </c>
+      <c r="F66" t="str">
+        <v>١١:٥٨:٥٢ ص</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F46"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F66"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/scan-logs.xlsx
+++ b/scan-logs.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -1730,9 +1730,369 @@
         <v>١١:٥٨:٥٢ ص</v>
       </c>
     </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>2025-12-14T12:35:26.946Z</v>
+      </c>
+      <c r="B67" t="str">
+        <v>rousol@test.test</v>
+      </c>
+      <c r="C67" t="str">
+        <v>https://hrdf.org.sa</v>
+      </c>
+      <c r="D67" t="str">
+        <v>No</v>
+      </c>
+      <c r="E67" t="str">
+        <v>١٤‏/١٢‏/٢٠٢٥</v>
+      </c>
+      <c r="F67" t="str">
+        <v>٣:٣٥:٢٦ م</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>2025-12-14T12:43:05.857Z</v>
+      </c>
+      <c r="B68" t="str">
+        <v>rousol@test.test</v>
+      </c>
+      <c r="C68" t="str">
+        <v>https://design.dga.gov.sa</v>
+      </c>
+      <c r="D68" t="str">
+        <v>No</v>
+      </c>
+      <c r="E68" t="str">
+        <v>١٤‏/١٢‏/٢٠٢٥</v>
+      </c>
+      <c r="F68" t="str">
+        <v>٣:٤٣:٠٥ م</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>2025-12-14T12:44:21.413Z</v>
+      </c>
+      <c r="B69" t="str">
+        <v>rousol@test.test</v>
+      </c>
+      <c r="C69" t="str">
+        <v>https://dga.gov.sa</v>
+      </c>
+      <c r="D69" t="str">
+        <v>No</v>
+      </c>
+      <c r="E69" t="str">
+        <v>١٤‏/١٢‏/٢٠٢٥</v>
+      </c>
+      <c r="F69" t="str">
+        <v>٣:٤٤:٢١ م</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>2025-12-14T12:49:11.723Z</v>
+      </c>
+      <c r="B70" t="str">
+        <v>rousol@test.test</v>
+      </c>
+      <c r="C70" t="str">
+        <v>https://moc.gov.sa</v>
+      </c>
+      <c r="D70" t="str">
+        <v>No</v>
+      </c>
+      <c r="E70" t="str">
+        <v>١٤‏/١٢‏/٢٠٢٥</v>
+      </c>
+      <c r="F70" t="str">
+        <v>٣:٤٩:١١ م</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>2025-12-14T12:57:35.986Z</v>
+      </c>
+      <c r="B71" t="str">
+        <v>rousol@test.test</v>
+      </c>
+      <c r="C71" t="str">
+        <v>https://dga.gov.sa</v>
+      </c>
+      <c r="D71" t="str">
+        <v>No</v>
+      </c>
+      <c r="E71" t="str">
+        <v>١٤‏/١٢‏/٢٠٢٥</v>
+      </c>
+      <c r="F71" t="str">
+        <v>٣:٥٧:٣٥ م</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>2025-12-24T10:58:54.963Z</v>
+      </c>
+      <c r="B72" t="str">
+        <v>test@test.com</v>
+      </c>
+      <c r="C72" t="str">
+        <v>https://dga.gov.sa</v>
+      </c>
+      <c r="D72" t="str">
+        <v>No</v>
+      </c>
+      <c r="E72" t="str">
+        <v>٢٤‏/١٢‏/٢٠٢٥</v>
+      </c>
+      <c r="F72" t="str">
+        <v>١:٥٨:٥٥ م</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>2025-12-24T11:05:16.404Z</v>
+      </c>
+      <c r="B73" t="str">
+        <v>test@test.com</v>
+      </c>
+      <c r="C73" t="str">
+        <v>https://dga.gov.sa</v>
+      </c>
+      <c r="D73" t="str">
+        <v>No</v>
+      </c>
+      <c r="E73" t="str">
+        <v>٢٤‏/١٢‏/٢٠٢٥</v>
+      </c>
+      <c r="F73" t="str">
+        <v>٢:٠٥:١٦ م</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>2025-12-24T11:10:10.004Z</v>
+      </c>
+      <c r="B74" t="str">
+        <v>test@test.com</v>
+      </c>
+      <c r="C74" t="str">
+        <v>https://ncss.gov.sa/</v>
+      </c>
+      <c r="D74" t="str">
+        <v>No</v>
+      </c>
+      <c r="E74" t="str">
+        <v>٢٤‏/١٢‏/٢٠٢٥</v>
+      </c>
+      <c r="F74" t="str">
+        <v>٢:١٠:١٠ م</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>2025-12-24T11:15:15.358Z</v>
+      </c>
+      <c r="B75" t="str">
+        <v>test@test.com</v>
+      </c>
+      <c r="C75" t="str">
+        <v>https://momah.gov.sa</v>
+      </c>
+      <c r="D75" t="str">
+        <v>No</v>
+      </c>
+      <c r="E75" t="str">
+        <v>٢٤‏/١٢‏/٢٠٢٥</v>
+      </c>
+      <c r="F75" t="str">
+        <v>٢:١٥:١٥ م</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>2025-12-24T11:17:40.521Z</v>
+      </c>
+      <c r="B76" t="str">
+        <v>test@test.com</v>
+      </c>
+      <c r="C76" t="str">
+        <v>https://hrdf.gov.sa</v>
+      </c>
+      <c r="D76" t="str">
+        <v>No</v>
+      </c>
+      <c r="E76" t="str">
+        <v>٢٤‏/١٢‏/٢٠٢٥</v>
+      </c>
+      <c r="F76" t="str">
+        <v>٢:١٧:٤٠ م</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>2025-12-24T11:18:05.358Z</v>
+      </c>
+      <c r="B77" t="str">
+        <v>test@test.com</v>
+      </c>
+      <c r="C77" t="str">
+        <v>https://hrsd.gov.sa</v>
+      </c>
+      <c r="D77" t="str">
+        <v>No</v>
+      </c>
+      <c r="E77" t="str">
+        <v>٢٤‏/١٢‏/٢٠٢٥</v>
+      </c>
+      <c r="F77" t="str">
+        <v>٢:١٨:٠٥ م</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>2025-12-24T11:58:39.335Z</v>
+      </c>
+      <c r="B78" t="str">
+        <v>test@test.com</v>
+      </c>
+      <c r="C78" t="str">
+        <v>https://momah.gov.sa</v>
+      </c>
+      <c r="D78" t="str">
+        <v>No</v>
+      </c>
+      <c r="E78" t="str">
+        <v>٢٤‏/١٢‏/٢٠٢٥</v>
+      </c>
+      <c r="F78" t="str">
+        <v>٢:٥٨:٣٩ م</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>2025-12-24T12:07:43.033Z</v>
+      </c>
+      <c r="B79" t="str">
+        <v>test@test.com</v>
+      </c>
+      <c r="C79" t="str">
+        <v>https://momah.gov.sa</v>
+      </c>
+      <c r="D79" t="str">
+        <v>No</v>
+      </c>
+      <c r="E79" t="str">
+        <v>٢٤‏/١٢‏/٢٠٢٥</v>
+      </c>
+      <c r="F79" t="str">
+        <v>٣:٠٧:٤٣ م</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>2025-12-24T12:19:18.434Z</v>
+      </c>
+      <c r="B80" t="str">
+        <v>test@test.com</v>
+      </c>
+      <c r="C80" t="str">
+        <v>https://momah.gov.sa</v>
+      </c>
+      <c r="D80" t="str">
+        <v>No</v>
+      </c>
+      <c r="E80" t="str">
+        <v>٢٤‏/١٢‏/٢٠٢٥</v>
+      </c>
+      <c r="F80" t="str">
+        <v>٣:١٩:١٨ م</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>2025-12-24T12:24:49.015Z</v>
+      </c>
+      <c r="B81" t="str">
+        <v>test@test.com</v>
+      </c>
+      <c r="C81" t="str">
+        <v>https://momah.gov.sa</v>
+      </c>
+      <c r="D81" t="str">
+        <v>No</v>
+      </c>
+      <c r="E81" t="str">
+        <v>٢٤‏/١٢‏/٢٠٢٥</v>
+      </c>
+      <c r="F81" t="str">
+        <v>٣:٢٤:٤٩ م</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>2025-12-28T06:22:22.833Z</v>
+      </c>
+      <c r="B82" t="str">
+        <v>test@test.com</v>
+      </c>
+      <c r="C82" t="str">
+        <v>https://hrdf.org.sa</v>
+      </c>
+      <c r="D82" t="str">
+        <v>No</v>
+      </c>
+      <c r="E82" t="str">
+        <v>٢٨‏/١٢‏/٢٠٢٥</v>
+      </c>
+      <c r="F82" t="str">
+        <v>٩:٢٢:٢٢ ص</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>2025-12-28T06:45:40.446Z</v>
+      </c>
+      <c r="B83" t="str">
+        <v>test@test.com</v>
+      </c>
+      <c r="C83" t="str">
+        <v>https://dga.gov.sa</v>
+      </c>
+      <c r="D83" t="str">
+        <v>No</v>
+      </c>
+      <c r="E83" t="str">
+        <v>٢٨‏/١٢‏/٢٠٢٥</v>
+      </c>
+      <c r="F83" t="str">
+        <v>٩:٤٥:٤٠ ص</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>2025-12-28T07:02:10.325Z</v>
+      </c>
+      <c r="B84" t="str">
+        <v>test@test.com</v>
+      </c>
+      <c r="C84" t="str">
+        <v>https://dga.gov.sa</v>
+      </c>
+      <c r="D84" t="str">
+        <v>No</v>
+      </c>
+      <c r="E84" t="str">
+        <v>٢٨‏/١٢‏/٢٠٢٥</v>
+      </c>
+      <c r="F84" t="str">
+        <v>١٠:٠٢:١٠ ص</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F66"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F84"/>
   </ignoredErrors>
 </worksheet>
 </file>